--- a/data/trans_orig/CAGE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Edad-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7508</v>
+        <v>9846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004746894535136058</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01519658957440376</v>
+        <v>0.01992890355271158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5770</v>
+        <v>4974</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00211422444327862</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01234184756435354</v>
+        <v>0.01064031711449776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>3334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9212</v>
+        <v>9448</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003466939500990223</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0009096341522602803</v>
+        <v>0.000913609217608841</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009580756436998017</v>
+        <v>0.009825450057151871</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>3943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>970</v>
+        <v>991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9257</v>
+        <v>8890</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007980000485796673</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00196421425180073</v>
+        <v>0.002006140080837213</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0187369558194559</v>
+        <v>0.01799262800591659</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8628</v>
+        <v>8186</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005143019189732634</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01845545308922285</v>
+        <v>0.01750965255435498</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>6347</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2528</v>
+        <v>2829</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13776</v>
+        <v>14288</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006600713159630863</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002629255178905201</v>
+        <v>0.002941790197363489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01432711144196507</v>
+        <v>0.01485912304568114</v>
       </c>
     </row>
     <row r="7">
@@ -933,19 +933,19 @@
         <v>487776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>480295</v>
+        <v>480507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>491537</v>
+        <v>491724</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9872731049790673</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9721317735367572</v>
+        <v>0.9725600354816043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9948852242960136</v>
+        <v>0.9952639352286401</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>486</v>
@@ -954,19 +954,19 @@
         <v>464096</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>457433</v>
+        <v>457745</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>466543</v>
+        <v>466541</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9927427563669887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9784890619512037</v>
+        <v>0.979156624478386</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9979767753876688</v>
+        <v>0.997971616215626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>979</v>
@@ -975,19 +975,19 @@
         <v>951872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>943368</v>
+        <v>942073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>956824</v>
+        <v>956750</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.989932347339379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9810879196372132</v>
+        <v>0.9797410596615233</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9950816892185428</v>
+        <v>0.995004452597823</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4858</v>
+        <v>4867</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001318135463563299</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006605807155410436</v>
+        <v>0.006617827514080888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5850</v>
+        <v>5787</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001626972010328014</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009352268957064255</v>
+        <v>0.009252090516761241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6959</v>
+        <v>6381</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00146007363040939</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005113502028812607</v>
+        <v>0.004688547657035624</v>
       </c>
     </row>
     <row r="11">
@@ -1197,19 +1197,19 @@
         <v>5337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1869</v>
+        <v>1966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11703</v>
+        <v>13452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00725664333226604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002541838211438484</v>
+        <v>0.002672715928745282</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01591218977626232</v>
+        <v>0.01828955322867691</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9905</v>
+        <v>9801</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002650512798175479</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01583500262359179</v>
+        <v>0.01566965538212191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1239,19 +1239,19 @@
         <v>6995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2661</v>
+        <v>2511</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15378</v>
+        <v>14505</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005139712123471312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001955510888449188</v>
+        <v>0.001844892536706787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0112993312264881</v>
+        <v>0.01065798214409341</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>729182</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>722405</v>
+        <v>721326</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>732993</v>
+        <v>732667</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9914252212041706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.982210110774448</v>
+        <v>0.9807432432885141</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9966060402621904</v>
+        <v>0.9961629781492538</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>589</v>
@@ -1289,7 +1289,7 @@
         <v>622818</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>616345</v>
+        <v>615714</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>625494</v>
@@ -1298,7 +1298,7 @@
         <v>0.9957225151914965</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9853725462257071</v>
+        <v>0.9843650230808265</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1310,19 +1310,19 @@
         <v>1352000</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1343358</v>
+        <v>1343723</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1357035</v>
+        <v>1356616</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9934002142461194</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9870504647883395</v>
+        <v>0.9873186414013325</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.997099832162391</v>
+        <v>0.99679183944993</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4864</v>
+        <v>4829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001510958940152821</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007615351857496781</v>
+        <v>0.007560289411363039</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5771</v>
+        <v>6096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001475417902033362</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.008366344740199016</v>
+        <v>0.008838668205096375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6071</v>
+        <v>6032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001492505154854944</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004570015680192242</v>
+        <v>0.004541126240379716</v>
       </c>
     </row>
     <row r="15">
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4619</v>
+        <v>4999</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001380891638838953</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.007232343293483239</v>
+        <v>0.007826746832435874</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4432</v>
+        <v>4416</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0006638985747332918</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003336303242574743</v>
+        <v>0.003324345922354144</v>
       </c>
     </row>
     <row r="16">
@@ -1548,19 +1548,19 @@
         <v>3007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>634</v>
+        <v>882</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8884</v>
+        <v>8020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00470827890970433</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0009930005787487581</v>
+        <v>0.001380220318405257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01390992954710166</v>
+        <v>0.01255769778274507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>3007</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8134</v>
+        <v>7599</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002263624146662004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.000663036151069808</v>
+        <v>0.0006582171406030573</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006123014075635743</v>
+        <v>0.005720054796631503</v>
       </c>
     </row>
     <row r="17">
@@ -1611,19 +1611,19 @@
         <v>633814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>627955</v>
+        <v>628732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>636896</v>
+        <v>636810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9923998705113038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9832265788862515</v>
+        <v>0.9844430623105364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9972261559160166</v>
+        <v>0.9970914777687767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>657</v>
@@ -1632,7 +1632,7 @@
         <v>688726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>683973</v>
+        <v>683648</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>689744</v>
@@ -1641,7 +1641,7 @@
         <v>0.9985245820979667</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9916336552598009</v>
+        <v>0.9911613317949036</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1653,19 +1653,19 @@
         <v>1322540</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1316220</v>
+        <v>1316644</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1326275</v>
+        <v>1326306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9955799721237497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9908222232811081</v>
+        <v>0.9911415018603275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9983915332977082</v>
+        <v>0.9984148499544682</v>
       </c>
     </row>
     <row r="18">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6838</v>
+        <v>5874</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002273874900256649</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01326133434851703</v>
+        <v>0.01139076051838765</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6582</v>
+        <v>7022</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001133086398720792</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006360968430082383</v>
+        <v>0.006785526116396554</v>
       </c>
     </row>
     <row r="22">
@@ -1927,7 +1927,7 @@
         <v>514469</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>508804</v>
+        <v>509768</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>515642</v>
@@ -1936,7 +1936,7 @@
         <v>0.9977261250997433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9867386656514832</v>
+        <v>0.9886092394816124</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>1033616</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1028207</v>
+        <v>1027767</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>1034789</v>
@@ -1957,7 +1957,7 @@
         <v>0.9988669136012792</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9936390315699171</v>
+        <v>0.9932144738836035</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2052,19 +2052,19 @@
         <v>3635</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9072</v>
+        <v>8467</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009400110337589305</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002368207046369707</v>
+        <v>0.002394055330688388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02345897633266802</v>
+        <v>0.02189498926796051</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>901</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9029</v>
+        <v>9014</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004597363505353054</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001139495688177185</v>
+        <v>0.001139123074445247</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01141859123154165</v>
+        <v>0.01140065387787135</v>
       </c>
     </row>
     <row r="25">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10210</v>
+        <v>9933</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006828543752778318</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02640133069276005</v>
+        <v>0.0256861160865389</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10295</v>
+        <v>10425</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003339673335343058</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01302069169044166</v>
+        <v>0.01318514819505956</v>
       </c>
     </row>
     <row r="26">
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4535</v>
+        <v>3840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002347114876766105</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01172745125788362</v>
+        <v>0.009929381749736163</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5171</v>
+        <v>4154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002550335505575362</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01280104683995501</v>
+        <v>0.01028255416113134</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6969</v>
+        <v>5994</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002450945278347223</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008813720074403338</v>
+        <v>0.007580594635598262</v>
       </c>
     </row>
     <row r="27">
@@ -2249,19 +2249,19 @@
         <v>379527</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>371909</v>
+        <v>371991</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>383893</v>
+        <v>383863</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9814242310328662</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9617271083224568</v>
+        <v>0.9619386494141108</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9927144368138552</v>
+        <v>0.9926388495246469</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>395</v>
@@ -2270,7 +2270,7 @@
         <v>402956</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>398815</v>
+        <v>399832</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>403986</v>
@@ -2279,7 +2279,7 @@
         <v>0.9974496644944246</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9871989531600449</v>
+        <v>0.9897174458388687</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -2291,19 +2291,19 @@
         <v>782482</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>774745</v>
+        <v>774022</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>787017</v>
+        <v>786800</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9896120178809567</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9798265211239108</v>
+        <v>0.9789124221621501</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9953469944742704</v>
+        <v>0.9950727347264086</v>
       </c>
     </row>
     <row r="28">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4130</v>
+        <v>5084</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.004796825580937751</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01967719410746654</v>
+        <v>0.02422248479788616</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5448</v>
+        <v>5067</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001851395439818807</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01001818344269801</v>
+        <v>0.009317972004863079</v>
       </c>
     </row>
     <row r="35">
@@ -2815,7 +2815,7 @@
         <v>208876</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>205753</v>
+        <v>204799</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>209883</v>
@@ -2824,7 +2824,7 @@
         <v>0.9952031744190623</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9803228058925335</v>
+        <v>0.9757775152021139</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>542784</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>538343</v>
+        <v>538724</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>543791</v>
@@ -2858,7 +2858,7 @@
         <v>0.9981486045601812</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9899818165573031</v>
+        <v>0.9906820279951369</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -2953,19 +2953,19 @@
         <v>5607</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>12258</v>
+        <v>11785</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001711221020857152</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0007677878445496275</v>
+        <v>0.0007691671949316924</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.003741180808253826</v>
+        <v>0.003596642499711688</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5110</v>
+        <v>5558</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0003011546389197376</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.001512321003551215</v>
+        <v>0.001644665354323607</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>7</v>
@@ -2995,19 +2995,19 @@
         <v>6625</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2893</v>
+        <v>2882</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>13469</v>
+        <v>13411</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.000995313838218762</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0004346647997306016</v>
+        <v>0.0004330596159683517</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.002023702441272536</v>
+        <v>0.002014935057598716</v>
       </c>
     </row>
     <row r="40">
@@ -3024,19 +3024,19 @@
         <v>6837</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2663</v>
+        <v>2353</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14164</v>
+        <v>14552</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002086754165561299</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0008128479374787167</v>
+        <v>0.0007182079906879675</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.004322868209004088</v>
+        <v>0.004441316367597334</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7027</v>
+        <v>7003</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0005936433697329825</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.002079455417497298</v>
+        <v>0.002072526794552836</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -3066,19 +3066,19 @@
         <v>8843</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4224</v>
+        <v>3840</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17253</v>
+        <v>17796</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001328684363386653</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0006346029744560339</v>
+        <v>0.0005770171391868826</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.002592202561469821</v>
+        <v>0.002673775610229689</v>
       </c>
     </row>
     <row r="41">
@@ -3095,19 +3095,19 @@
         <v>13194</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7554</v>
+        <v>7181</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22219</v>
+        <v>22249</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.00402695341232436</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002305470451890319</v>
+        <v>0.002191778010347999</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.006781217949503548</v>
+        <v>0.006790479631766741</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3116,19 +3116,19 @@
         <v>6265</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14055</v>
+        <v>14254</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001853987833040277</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0006282232769482915</v>
+        <v>0.0006286506120124565</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.004159190462143992</v>
+        <v>0.004218233129632353</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -3137,19 +3137,19 @@
         <v>19459</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>12138</v>
+        <v>11845</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>31176</v>
+        <v>30188</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002923713390604226</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001823644257568388</v>
+        <v>0.001779630587786393</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004684116185186301</v>
+        <v>0.00453562629275265</v>
       </c>
     </row>
     <row r="42">
@@ -3166,19 +3166,19 @@
         <v>3250904</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3289</v>
@@ -3187,19 +3187,19 @@
         <v>3369908</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6478</v>
@@ -3208,19 +3208,19 @@
         <v>6620814</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="43">
@@ -3602,19 +3602,19 @@
         <v>5404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1869</v>
+        <v>1896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11033</v>
+        <v>11008</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0118992809747034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004115494398714504</v>
+        <v>0.004175414549221064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02429487353006363</v>
+        <v>0.0242396085489317</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>5404</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2382</v>
+        <v>1901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11675</v>
+        <v>11412</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006110537753329872</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002692901644099274</v>
+        <v>0.002150055478313469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01320112802848924</v>
+        <v>0.01290376259303673</v>
       </c>
     </row>
     <row r="6">
@@ -3665,19 +3665,19 @@
         <v>8919</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4657</v>
+        <v>4492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16974</v>
+        <v>16345</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01963807417581075</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01025441494853505</v>
+        <v>0.009891083838631784</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03737534691059306</v>
+        <v>0.03599085150717787</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3686,19 +3686,19 @@
         <v>4123</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9448</v>
+        <v>10350</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009582206312607013</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002345248565185588</v>
+        <v>0.002325352246663232</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02196086195443966</v>
+        <v>0.02405791960576683</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -3707,19 +3707,19 @@
         <v>13041</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7796</v>
+        <v>7911</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21805</v>
+        <v>22120</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01474611162346002</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008815788207109111</v>
+        <v>0.008945609136928958</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02465620922816296</v>
+        <v>0.02501144838922002</v>
       </c>
     </row>
     <row r="7">
@@ -3736,19 +3736,19 @@
         <v>439823</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>429593</v>
+        <v>431019</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>445689</v>
+        <v>445423</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9684626448494859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9459358251897256</v>
+        <v>0.9490754963156232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.981378330034504</v>
+        <v>0.9807921610617683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>417</v>
@@ -3757,19 +3757,19 @@
         <v>426107</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>420782</v>
+        <v>419880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>429221</v>
+        <v>429230</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.990417793687393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9780391380455605</v>
+        <v>0.9759420803942332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9976547514348144</v>
+        <v>0.9976746477533368</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>848</v>
@@ -3778,19 +3778,19 @@
         <v>865931</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>856672</v>
+        <v>855901</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>872438</v>
+        <v>872307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9791433506232101</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9686734274629357</v>
+        <v>0.9678022701433802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9865011345776643</v>
+        <v>0.9863534442275123</v>
       </c>
     </row>
     <row r="8">
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6144</v>
+        <v>5309</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002558693271779241</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008942404675785987</v>
+        <v>0.007726325836884708</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5320</v>
+        <v>5345</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001355112513226123</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004100937661118766</v>
+        <v>0.004120292597841442</v>
       </c>
     </row>
     <row r="10">
@@ -3945,19 +3945,19 @@
         <v>6358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2623</v>
+        <v>2647</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13866</v>
+        <v>13878</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009253167163677311</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003817886280981522</v>
+        <v>0.003851910375698642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02018154609747947</v>
+        <v>0.02019772354375729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>6358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2693</v>
+        <v>2601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13443</v>
+        <v>13806</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004900580600562915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002076095128837696</v>
+        <v>0.002004911607282146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01036228400302223</v>
+        <v>0.01064183593225357</v>
       </c>
     </row>
     <row r="11">
@@ -4008,19 +4008,19 @@
         <v>6305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2730</v>
+        <v>2611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12073</v>
+        <v>12382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009177033810927391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003973613165487199</v>
+        <v>0.003800153669943396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01757149618035205</v>
+        <v>0.01802100817501631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -4042,19 +4042,19 @@
         <v>6305</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2620</v>
+        <v>2571</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12715</v>
+        <v>12299</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004860259527254455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002019721678738015</v>
+        <v>0.001982083667496714</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009800928670248406</v>
+        <v>0.00948024600521351</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>672666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>663642</v>
+        <v>664037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>678898</v>
+        <v>678947</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9790111057536161</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9658782796824059</v>
+        <v>0.9664528228039531</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9880811139377048</v>
+        <v>0.9881523526163529</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>571</v>
@@ -4105,19 +4105,19 @@
         <v>1282921</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1273795</v>
+        <v>1272959</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1289283</v>
+        <v>1288799</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9888840473589565</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9818501919984305</v>
+        <v>0.9812051866703387</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9937877043104849</v>
+        <v>0.9934153653949317</v>
       </c>
     </row>
     <row r="13">
@@ -4209,19 +4209,19 @@
         <v>6070</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2175</v>
+        <v>2653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12801</v>
+        <v>13439</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008902366433623733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003190182069278347</v>
+        <v>0.003891238143642554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01877412294971792</v>
+        <v>0.01970990169989199</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4243,19 +4243,19 @@
         <v>6070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2285</v>
+        <v>2160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11957</v>
+        <v>12461</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004358539221798521</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001640547961712972</v>
+        <v>0.001550982483303586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00858566083531985</v>
+        <v>0.008947113067291918</v>
       </c>
     </row>
     <row r="15">
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7954</v>
+        <v>6853</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002898654906430726</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01166550390529789</v>
+        <v>0.01005008547729859</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6921</v>
+        <v>6688</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001419162106428187</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.00496949009245224</v>
+        <v>0.004801787637836386</v>
       </c>
     </row>
     <row r="16">
@@ -4335,19 +4335,19 @@
         <v>5106</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1861</v>
+        <v>1945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11131</v>
+        <v>11189</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007487750814029972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002729411190337164</v>
+        <v>0.002852370089296211</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01632374430235858</v>
+        <v>0.01640933895292528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4369,19 +4369,19 @@
         <v>5106</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2049</v>
+        <v>1854</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11631</v>
+        <v>11193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003665952850776893</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001471217026316144</v>
+        <v>0.001330878930994219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008351029360628726</v>
+        <v>0.008036764739768932</v>
       </c>
     </row>
     <row r="17">
@@ -4398,19 +4398,19 @@
         <v>668711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>660005</v>
+        <v>659509</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>674810</v>
+        <v>674359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9807112278459156</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9679431627231104</v>
+        <v>0.9672166914814906</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.989655723920655</v>
+        <v>0.9889949560518265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>667</v>
@@ -4432,19 +4432,19 @@
         <v>1379560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1370464</v>
+        <v>1370971</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1385277</v>
+        <v>1385781</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9905563458209964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9840250705333328</v>
+        <v>0.9843893115754971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9946612153593493</v>
+        <v>0.9950232843802247</v>
       </c>
     </row>
     <row r="18">
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5317</v>
+        <v>6017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001714503958378571</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.008650776394799935</v>
+        <v>0.009789187356192575</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5924</v>
+        <v>5295</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0008561498374540033</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004813360571608789</v>
+        <v>0.004302349120577609</v>
       </c>
     </row>
     <row r="20">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9085</v>
+        <v>7349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003440434470082139</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01478103088401985</v>
+        <v>0.01195745486059843</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7342</v>
+        <v>7429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001718005606191541</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005965102166649063</v>
+        <v>0.006036190503369249</v>
       </c>
     </row>
     <row r="21">
@@ -4662,19 +4662,19 @@
         <v>9491</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4108</v>
+        <v>4021</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19547</v>
+        <v>20440</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01544259644658382</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006683343850691779</v>
+        <v>0.006542077309437702</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03180400173374951</v>
+        <v>0.03325684764882174</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4696,19 +4696,19 @@
         <v>9491</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3962</v>
+        <v>4132</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20881</v>
+        <v>22608</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007711371194566359</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003218783149157659</v>
+        <v>0.003356953195348851</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01696483024214427</v>
+        <v>0.01836830639707145</v>
       </c>
     </row>
     <row r="22">
@@ -4725,19 +4725,19 @@
         <v>601957</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>590852</v>
+        <v>591041</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>608195</v>
+        <v>608550</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9794024651249554</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9613342144444202</v>
+        <v>0.9616417612702197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9895515723140331</v>
+        <v>0.9901287803766796</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>539</v>
@@ -4759,19 +4759,19 @@
         <v>1218156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1206434</v>
+        <v>1206140</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1224620</v>
+        <v>1224692</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9897144733617881</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9801905553351508</v>
+        <v>0.9799514455987098</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9949660023694118</v>
+        <v>0.99502462435501</v>
       </c>
     </row>
     <row r="23">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12556</v>
+        <v>11382</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00707353013161176</v>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02923777716422863</v>
+        <v>0.02650384304010262</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5088</v>
+        <v>4634</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002236755671080418</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01136178290161704</v>
+        <v>0.01034933345643466</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -4955,16 +4955,16 @@
         <v>818</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12961</v>
+        <v>12243</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004604497292410649</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0009323550961490071</v>
+        <v>0.0009330398453367433</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01477544519631602</v>
+        <v>0.01395672664899911</v>
       </c>
     </row>
     <row r="26">
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4985</v>
+        <v>4977</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002288831336844519</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01160853752160622</v>
+        <v>0.01158880178385019</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4967</v>
+        <v>5584</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001120449436845632</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.005662489545959964</v>
+        <v>0.006365280077317851</v>
       </c>
     </row>
     <row r="27">
@@ -5044,19 +5044,19 @@
         <v>425409</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>416264</v>
+        <v>417716</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>428614</v>
+        <v>428602</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9906376385315437</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9693422200716538</v>
+        <v>0.9727249886356233</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9981013665211422</v>
+        <v>0.9980738512636643</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>405</v>
@@ -5065,7 +5065,7 @@
         <v>446798</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>442712</v>
+        <v>443166</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>447800</v>
@@ -5074,7 +5074,7 @@
         <v>0.9977632443289196</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.988638217098383</v>
+        <v>0.9896506665435656</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5086,19 +5086,19 @@
         <v>872207</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>863551</v>
+        <v>864051</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>875588</v>
+        <v>876217</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9942750532707437</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9844075991797657</v>
+        <v>0.9849772918744752</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9981293715337027</v>
+        <v>0.9988468137563289</v>
       </c>
     </row>
     <row r="28">
@@ -5284,19 +5284,19 @@
         <v>4956</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1922</v>
+        <v>1871</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13720</v>
+        <v>13100</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01599822118995958</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006202906184067056</v>
+        <v>0.006039563231941107</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0442880405231277</v>
+        <v>0.0422859657853417</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5318,19 +5318,19 @@
         <v>4956</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1016</v>
+        <v>1877</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11915</v>
+        <v>13002</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.007466346639325753</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001530637014988451</v>
+        <v>0.002828346439637774</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01794974858579945</v>
+        <v>0.01958716621096211</v>
       </c>
     </row>
     <row r="32">
@@ -5347,19 +5347,19 @@
         <v>304830</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>296066</v>
+        <v>296686</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>307864</v>
+        <v>307915</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9840017788100404</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9557119594768725</v>
+        <v>0.9577140342146583</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.993797093815933</v>
+        <v>0.9939604367680589</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>344</v>
@@ -5381,19 +5381,19 @@
         <v>658826</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>651867</v>
+        <v>650780</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>662766</v>
+        <v>661905</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9925336533606742</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9820502514142005</v>
+        <v>0.9804128337890378</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9984693629850115</v>
+        <v>0.9971716535603622</v>
       </c>
     </row>
     <row r="33">
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11975</v>
+        <v>11114</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.009179897343699806</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04792738108874615</v>
+        <v>0.04448154330896031</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11481</v>
+        <v>11376</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003590322496617104</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01797201000046942</v>
+        <v>0.01780771962454498</v>
       </c>
     </row>
     <row r="36">
@@ -5642,7 +5642,7 @@
         <v>247557</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>237876</v>
+        <v>238737</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>249851</v>
@@ -5651,7 +5651,7 @@
         <v>0.9908201026563002</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9520726189112544</v>
+        <v>0.9555184566910396</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>636536</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>627349</v>
+        <v>627454</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>638830</v>
@@ -5685,7 +5685,7 @@
         <v>0.9964096775033829</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9820279899995306</v>
+        <v>0.982192280375455</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -5780,19 +5780,19 @@
         <v>8882</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>4274</v>
+        <v>3984</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>16434</v>
+        <v>16094</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.002591938026770481</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.001247167022975168</v>
+        <v>0.001162681224048113</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.004795654779969259</v>
+        <v>0.004696432506523105</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -5814,19 +5814,19 @@
         <v>8882</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3950</v>
+        <v>3964</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>16468</v>
+        <v>15948</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001271565727204031</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0005654977235097497</v>
+        <v>0.0005674932246521851</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.002357609109787084</v>
+        <v>0.002283162919525988</v>
       </c>
     </row>
     <row r="40">
@@ -5843,19 +5843,19 @@
         <v>21184</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>13017</v>
+        <v>12688</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>34451</v>
+        <v>34721</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006181888456938393</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003798598073510594</v>
+        <v>0.003702676801863724</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.010053404588765</v>
+        <v>0.0101323989171328</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0002814874105467052</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.001410916277789446</v>
+        <v>0.001407866539182848</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -5885,19 +5885,19 @@
         <v>22186</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>12893</v>
+        <v>13877</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>35887</v>
+        <v>34482</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003176135226142356</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001845720271436359</v>
+        <v>0.001986682677249159</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005137724026621743</v>
+        <v>0.004936494158860018</v>
       </c>
     </row>
     <row r="41">
@@ -5914,19 +5914,19 @@
         <v>35760</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>23775</v>
+        <v>24594</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>50220</v>
+        <v>50905</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01043539576819881</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.006937864433898318</v>
+        <v>0.007177121022651343</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01465522938791896</v>
+        <v>0.01485518564109051</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -5935,19 +5935,19 @@
         <v>4123</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1125</v>
+        <v>1014</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10952</v>
+        <v>9979</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001158570717232079</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0003160242119614662</v>
+        <v>0.0002850363455963488</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.003077890316873893</v>
+        <v>0.002804451905835558</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -5956,19 +5956,19 @@
         <v>39882</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>29083</v>
+        <v>27708</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>57232</v>
+        <v>55717</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.005709641256050036</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00416361295760329</v>
+        <v>0.003966677674610943</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008193427952015638</v>
+        <v>0.007976603190066951</v>
       </c>
     </row>
     <row r="42">
@@ -5985,19 +5985,19 @@
         <v>3360953</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3341639</v>
+        <v>3341850</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3376783</v>
+        <v>3376281</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9807907777480923</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9751544054652108</v>
+        <v>0.975215955738316</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9854101113186752</v>
+        <v>0.9852638338121401</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3293</v>
@@ -6006,19 +6006,19 @@
         <v>3553185</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3545967</v>
+        <v>3547047</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3556316</v>
+        <v>3556312</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9985599418722212</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9965315229906108</v>
+        <v>0.996834959887961</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9994398892859592</v>
+        <v>0.9994388895881863</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6441</v>
@@ -6027,19 +6027,19 @@
         <v>6914138</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6891560</v>
+        <v>6894231</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6930186</v>
+        <v>6931591</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9898426577906035</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9866103325868643</v>
+        <v>0.986992773973325</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9921400716375637</v>
+        <v>0.9923412443711332</v>
       </c>
     </row>
     <row r="43">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8081</v>
+        <v>6826</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00321833812962085</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01926542747094727</v>
+        <v>0.01627367238742776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8216</v>
+        <v>6756</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001655966575361688</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0100783108318337</v>
+        <v>0.008287666644262903</v>
       </c>
     </row>
     <row r="6">
@@ -6484,19 +6484,19 @@
         <v>4336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1113</v>
+        <v>1244</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10108</v>
+        <v>10385</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01033603213226206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002652335114809466</v>
+        <v>0.002964843957736899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02409656091859322</v>
+        <v>0.02475871006972031</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6505,19 +6505,19 @@
         <v>3010</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7893</v>
+        <v>8317</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007605366013826876</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002377042084398022</v>
+        <v>0.002374504122826569</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01994365089660535</v>
+        <v>0.02101494737790074</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -6526,19 +6526,19 @@
         <v>7345</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3199</v>
+        <v>3184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15973</v>
+        <v>14611</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009010405397036132</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003923648429488947</v>
+        <v>0.003905315054666065</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01959401904762647</v>
+        <v>0.0179232567627868</v>
       </c>
     </row>
     <row r="7">
@@ -6555,19 +6555,19 @@
         <v>413777</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>406102</v>
+        <v>406888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>417388</v>
+        <v>417379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9864456297381171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9681476428401423</v>
+        <v>0.9700221996107162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9950521104332463</v>
+        <v>0.9950324520747629</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>401</v>
@@ -6576,19 +6576,19 @@
         <v>392745</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>387862</v>
+        <v>387438</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>394814</v>
+        <v>394815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9923946339861731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9800563491033947</v>
+        <v>0.9789850526220992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.997622957915602</v>
+        <v>0.9976254958771735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>789</v>
@@ -6597,19 +6597,19 @@
         <v>806523</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>798014</v>
+        <v>798322</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>811038</v>
+        <v>811076</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9893336280276022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9788967178148782</v>
+        <v>0.9792740999587142</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9948719424545182</v>
+        <v>0.9949185981262096</v>
       </c>
     </row>
     <row r="8">
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5001</v>
+        <v>6561</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00163657166904087</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008874672849128172</v>
+        <v>0.01164322488550156</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5998</v>
+        <v>6771</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0007991747863127505</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005197058206066738</v>
+        <v>0.005867124058438774</v>
       </c>
     </row>
     <row r="10">
@@ -6764,19 +6764,19 @@
         <v>4359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10383</v>
+        <v>11056</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007382240716743624</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001827483646183219</v>
+        <v>0.001815717397955769</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01758305300878077</v>
+        <v>0.01872342532757934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6798,19 +6798,19 @@
         <v>4359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10535</v>
+        <v>10140</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003777326395594185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0009210688871052809</v>
+        <v>0.0009218881776119985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009128864404686986</v>
+        <v>0.008786529675097542</v>
       </c>
     </row>
     <row r="11">
@@ -6827,19 +6827,19 @@
         <v>10130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4871</v>
+        <v>5139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17083</v>
+        <v>17981</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01715496512802235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008249028681545974</v>
+        <v>0.008702206778345182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02893016122678217</v>
+        <v>0.03045035186382246</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -6848,19 +6848,19 @@
         <v>3861</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>935</v>
+        <v>1002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8754</v>
+        <v>9280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006852042534609486</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001659463157590521</v>
+        <v>0.001778219226481032</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01553448172079784</v>
+        <v>0.01646785588128926</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -6869,19 +6869,19 @@
         <v>13991</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8042</v>
+        <v>7819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22223</v>
+        <v>22148</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01212381609999777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006968696371858637</v>
+        <v>0.006775123254696689</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01925686688722598</v>
+        <v>0.0191917253148362</v>
       </c>
     </row>
     <row r="12">
@@ -6898,19 +6898,19 @@
         <v>576007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>568301</v>
+        <v>567448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>582736</v>
+        <v>582194</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9754627941552341</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9624130336839907</v>
+        <v>0.9609683746719797</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9868586034417318</v>
+        <v>0.9859407539579954</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>574</v>
@@ -6919,19 +6919,19 @@
         <v>558760</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>553764</v>
+        <v>552365</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>561710</v>
+        <v>561637</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9915113857963497</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9826454897942933</v>
+        <v>0.9801630500621051</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9967457167497741</v>
+        <v>0.9966156073109612</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1127</v>
@@ -6940,19 +6940,19 @@
         <v>1134767</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1125718</v>
+        <v>1124850</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1141969</v>
+        <v>1142743</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9832996827180953</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9754585537792567</v>
+        <v>0.9747065518772957</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9895400471085166</v>
+        <v>0.9902113048141503</v>
       </c>
     </row>
     <row r="13">
@@ -7094,16 +7094,16 @@
         <v>898</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7770</v>
+        <v>7532</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.004192564250790477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001342633957722398</v>
+        <v>0.00134276958359306</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0116120543602483</v>
+        <v>0.0112566262670745</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3802</v>
+        <v>5285</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001423039473419415</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.005748441722622489</v>
+        <v>0.007991027580927122</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -7133,19 +7133,19 @@
         <v>3746</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>979</v>
+        <v>939</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9484</v>
+        <v>9458</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002815826833097624</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0007360681606223966</v>
+        <v>0.000705641145992022</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.007128386322765263</v>
+        <v>0.007108952487666527</v>
       </c>
     </row>
     <row r="16">
@@ -7162,19 +7162,19 @@
         <v>5226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11585</v>
+        <v>11527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007810928978550805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002917081146959663</v>
+        <v>0.002908776731369858</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.017314253519763</v>
+        <v>0.017228301674468</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3913</v>
+        <v>3316</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001244510311963463</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005916650804927029</v>
+        <v>0.005013034443787729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -7204,19 +7204,19 @@
         <v>6049</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2572</v>
+        <v>2789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12801</v>
+        <v>13299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004546746490496325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001932839245791144</v>
+        <v>0.002096546924787177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009621089804962448</v>
+        <v>0.009995963896012733</v>
       </c>
     </row>
     <row r="17">
@@ -7233,19 +7233,19 @@
         <v>661065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>654452</v>
+        <v>653716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>665239</v>
+        <v>665350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9879965067706588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9781127638456704</v>
+        <v>0.9770119359685248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9942334083585217</v>
+        <v>0.9943999233875954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>663</v>
@@ -7254,7 +7254,7 @@
         <v>659622</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>656106</v>
+        <v>655033</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>661386</v>
@@ -7263,7 +7263,7 @@
         <v>0.9973324502146171</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9920163766098201</v>
+        <v>0.9903940131796228</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -7275,19 +7275,19 @@
         <v>1320687</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1312653</v>
+        <v>1313047</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1325659</v>
+        <v>1325363</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9926374266764061</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9865991684037296</v>
+        <v>0.986895048331253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9963741724816449</v>
+        <v>0.9961514800471271</v>
       </c>
     </row>
     <row r="18">
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4230</v>
+        <v>6980</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001622507984632656</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.00654758125619651</v>
+        <v>0.01080365703017657</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7227</v>
+        <v>5547</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001700811324316179</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01113427668221988</v>
+        <v>0.008545265258389516</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6602</v>
+        <v>7670</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001661751210366336</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005097439709108113</v>
+        <v>0.005921913353256195</v>
       </c>
     </row>
     <row r="20">
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7454</v>
+        <v>7527</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003526115957014242</v>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01153717547661263</v>
+        <v>0.01165051979120202</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7930</v>
+        <v>8215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001758935080393749</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006122973814361935</v>
+        <v>0.006343349420917194</v>
       </c>
     </row>
     <row r="21">
@@ -7513,19 +7513,19 @@
         <v>6774</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2195</v>
+        <v>2226</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15811</v>
+        <v>14911</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01048473290226021</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00339796757229339</v>
+        <v>0.003446235717575286</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02447298535689347</v>
+        <v>0.02308099936553992</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6990</v>
+        <v>7800</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003426749975899451</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01076878420399566</v>
+        <v>0.01201781323979654</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -7555,19 +7555,19 @@
         <v>8998</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3348</v>
+        <v>3360</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18736</v>
+        <v>17151</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00694748891850307</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002585334667643103</v>
+        <v>0.002594657758364954</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01446642094952804</v>
+        <v>0.01324297557196355</v>
       </c>
     </row>
     <row r="22">
@@ -7584,19 +7584,19 @@
         <v>635948</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>626751</v>
+        <v>626199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>641694</v>
+        <v>641100</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9843666431560929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9701312570804465</v>
+        <v>0.9692759634134819</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9932610925774906</v>
+        <v>0.9923413280086808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>599</v>
@@ -7605,19 +7605,19 @@
         <v>645749</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>640086</v>
+        <v>639180</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>647979</v>
+        <v>647977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9948724386997844</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9861475863318113</v>
+        <v>0.9847520135644174</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9983084206637349</v>
+        <v>0.9983048891475296</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1173</v>
@@ -7626,19 +7626,19 @@
         <v>1281697</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1270896</v>
+        <v>1272307</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1288155</v>
+        <v>1288280</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9896318247907369</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9812920788234603</v>
+        <v>0.9823817510437848</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9946180456940366</v>
+        <v>0.9947146646836994</v>
       </c>
     </row>
     <row r="23">
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5464</v>
+        <v>6231</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002291483555775096</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01143239599350183</v>
+        <v>0.01303825650450282</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5477</v>
+        <v>5738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001123490264510225</v>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005618901960401525</v>
+        <v>0.005886216314553696</v>
       </c>
     </row>
     <row r="25">
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5871</v>
+        <v>5568</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002318606205215384</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01228518553709396</v>
+        <v>0.01165078727777222</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4466</v>
+        <v>5560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001136788214005472</v>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00458173289987495</v>
+        <v>0.005703796450462538</v>
       </c>
     </row>
     <row r="26">
@@ -7856,19 +7856,19 @@
         <v>6398</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2249</v>
+        <v>2268</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14474</v>
+        <v>14888</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01338822460394478</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004704965334642337</v>
+        <v>0.004745900949462104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03028575009681226</v>
+        <v>0.03115235738366075</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10553</v>
+        <v>10659</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005893801407008933</v>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02124079503790266</v>
+        <v>0.02145296711831406</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -7898,19 +7898,19 @@
         <v>9327</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4102</v>
+        <v>3624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19036</v>
+        <v>18620</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009568238205238097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004208054180140679</v>
+        <v>0.003718081843115202</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01952914624561378</v>
+        <v>0.01910159214477738</v>
       </c>
     </row>
     <row r="27">
@@ -7927,19 +7927,19 @@
         <v>469316</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>460686</v>
+        <v>460005</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>474505</v>
+        <v>473788</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9820016856350647</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9639426360197892</v>
+        <v>0.9625184132853263</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9928577723880146</v>
+        <v>0.9913573758110736</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>431</v>
@@ -7948,7 +7948,7 @@
         <v>493921</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>486296</v>
+        <v>486190</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>496849</v>
@@ -7957,7 +7957,7 @@
         <v>0.9941061985929911</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.978759204962097</v>
+        <v>0.9785470328816859</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -7969,19 +7969,19 @@
         <v>963237</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>952905</v>
+        <v>953298</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>969113</v>
+        <v>969180</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9881714833162462</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9775718253027476</v>
+        <v>0.9779748491410183</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9941996458115325</v>
+        <v>0.9942682530987023</v>
       </c>
     </row>
     <row r="28">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5892</v>
+        <v>4826</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002872904344999366</v>
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01762237543228485</v>
+        <v>0.01443358746095425</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5312</v>
+        <v>4811</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0013488399036914</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.007459418220255763</v>
+        <v>0.006755845858807697</v>
       </c>
     </row>
     <row r="31">
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5347</v>
+        <v>5393</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002842127955481847</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01415424991521701</v>
+        <v>0.01427580889586986</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6436</v>
+        <v>6467</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001507737687868667</v>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.009038339624438793</v>
+        <v>0.009082128986508731</v>
       </c>
     </row>
     <row r="32">
@@ -8246,7 +8246,7 @@
         <v>333370</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>328438</v>
+        <v>329504</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>334330</v>
@@ -8255,7 +8255,7 @@
         <v>0.9971270956550007</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9823776245677147</v>
+        <v>0.9855664125390458</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -8267,7 +8267,7 @@
         <v>376688</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>372415</v>
+        <v>372369</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>377762</v>
@@ -8276,7 +8276,7 @@
         <v>0.9971578720445181</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.985845750084783</v>
+        <v>0.9857241911041301</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>710058</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>705132</v>
+        <v>704946</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>712092</v>
@@ -8297,7 +8297,7 @@
         <v>0.9971434224084399</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9902262993214062</v>
+        <v>0.9899646057515649</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5251</v>
+        <v>4911</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003548045625365132</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02043160177101871</v>
+        <v>0.01910987663600567</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5133</v>
+        <v>5287</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00138753259478725</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007811095346536793</v>
+        <v>0.008044992273115122</v>
       </c>
     </row>
     <row r="37">
@@ -8549,7 +8549,7 @@
         <v>256086</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>251747</v>
+        <v>252087</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>256998</v>
@@ -8558,7 +8558,7 @@
         <v>0.9964519543746349</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9795683982289822</v>
+        <v>0.9808901233639988</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -8583,7 +8583,7 @@
         <v>656255</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>652034</v>
+        <v>651880</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>657167</v>
@@ -8592,7 +8592,7 @@
         <v>0.9986124674052127</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9921889046534619</v>
+        <v>0.9919550077268849</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6475</v>
+        <v>7475</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0006314492132601611</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.001907526963194628</v>
+        <v>0.002202276420395223</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7463</v>
+        <v>7168</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0005716499782607189</v>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.002105524775653996</v>
+        <v>0.002022176629541527</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -8729,19 +8729,19 @@
         <v>4170</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>10626</v>
+        <v>9485</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0006009024214219004</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0001577281592101912</v>
+        <v>0.000152503519799868</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001531387431084885</v>
+        <v>0.001366963599020058</v>
       </c>
     </row>
     <row r="40">
@@ -8758,19 +8758,19 @@
         <v>12861</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7280</v>
+        <v>6885</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>21903</v>
+        <v>22181</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003788953006902634</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002144881730107002</v>
+        <v>0.002028247158460389</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.006452912136269218</v>
+        <v>0.006534546236013948</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3786</v>
+        <v>4852</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0002655289868096186</v>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.001068199229452239</v>
+        <v>0.001368996997113917</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>13</v>
@@ -8800,19 +8800,19 @@
         <v>13802</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>7785</v>
+        <v>7442</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>23908</v>
+        <v>22065</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001989108910222913</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001121955974818733</v>
+        <v>0.001072434428277242</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003445485332045474</v>
+        <v>0.003179856722517684</v>
       </c>
     </row>
     <row r="41">
@@ -8829,19 +8829,19 @@
         <v>33776</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>23918</v>
+        <v>22353</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>49034</v>
+        <v>47352</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.009950579434444487</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007046403150402105</v>
+        <v>0.00658536064844448</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01444586954956503</v>
+        <v>0.01395026905707022</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -8850,19 +8850,19 @@
         <v>13921</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7924</v>
+        <v>7581</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>23545</v>
+        <v>23448</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003927331547081767</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002235430257635697</v>
+        <v>0.002138692115668889</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.00664256711897303</v>
+        <v>0.006615341974149688</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>43</v>
@@ -8871,19 +8871,19 @@
         <v>47696</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>34715</v>
+        <v>35239</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>64924</v>
+        <v>63072</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006873769180814496</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005003026744728696</v>
+        <v>0.005078494754021155</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009356601310483147</v>
+        <v>0.009089658460034568</v>
       </c>
     </row>
     <row r="42">
@@ -8900,19 +8900,19 @@
         <v>3345570</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3329259</v>
+        <v>3328835</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3356989</v>
+        <v>3358636</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9856290183453927</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9808236086419353</v>
+        <v>0.980698713883927</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9889933172376272</v>
+        <v>0.9894785314204703</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3322</v>
@@ -8921,19 +8921,19 @@
         <v>3527654</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3517720</v>
+        <v>3517667</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3534177</v>
+        <v>3534405</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9952354894878479</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9924328609319597</v>
+        <v>0.992417845582704</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9970758605665394</v>
+        <v>0.9971401232522097</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6509</v>
@@ -8942,19 +8942,19 @@
         <v>6873224</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6854774</v>
+        <v>6854789</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6888499</v>
+        <v>6887256</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9905362194875407</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9878773575549683</v>
+        <v>0.9878794152594558</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9927376228029611</v>
+        <v>0.9925584047515041</v>
       </c>
     </row>
     <row r="43">
@@ -9302,19 +9302,19 @@
         <v>6178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1699</v>
+        <v>1676</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16299</v>
+        <v>16579</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05566012133941105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01530820865086297</v>
+        <v>0.01509830440491464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1468436888567818</v>
+        <v>0.1493632794926332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -9323,19 +9323,19 @@
         <v>6178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1677</v>
+        <v>1655</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16590</v>
+        <v>19067</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02228412386419502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006050451712550877</v>
+        <v>0.005970762557728358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05984132733267393</v>
+        <v>0.06877559300110113</v>
       </c>
     </row>
     <row r="5">
@@ -9402,16 +9402,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9610</v>
+        <v>9575</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.009944405468207417</v>
+        <v>0.009944405468207414</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05780559983496361</v>
+        <v>0.05759923478262921</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8231</v>
+        <v>8576</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005963056562084871</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02968812148493995</v>
+        <v>0.03093209910720572</v>
       </c>
     </row>
     <row r="7">
@@ -9462,7 +9462,7 @@
         <v>164590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>156633</v>
+        <v>156668</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>166243</v>
@@ -9471,7 +9471,7 @@
         <v>0.9900555945317926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9421944001650401</v>
+        <v>0.9424007652173709</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -9483,19 +9483,19 @@
         <v>104817</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>94696</v>
+        <v>94416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109296</v>
+        <v>109319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9443398786605889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8531563111432183</v>
+        <v>0.8506367205073667</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9846917913491372</v>
+        <v>0.9849016955950853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -9504,19 +9504,19 @@
         <v>269407</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>258565</v>
+        <v>258391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>275012</v>
+        <v>275451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9717528195737202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9326473088827704</v>
+        <v>0.9320191105400422</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9919698495167738</v>
+        <v>0.9935538033085471</v>
       </c>
     </row>
     <row r="8">
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5195</v>
+        <v>4841</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005682502839921909</v>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0342863525374462</v>
+        <v>0.03195055169793905</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4370</v>
+        <v>4273</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002147146868757316</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01089954437525587</v>
+        <v>0.01065638735690362</v>
       </c>
     </row>
     <row r="10">
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7029</v>
+        <v>6210</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004955035639810957</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02817606473692633</v>
+        <v>0.02489169763591092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5925</v>
+        <v>6332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003082763938711867</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01477731980715521</v>
+        <v>0.01579185437045579</v>
       </c>
     </row>
     <row r="11">
@@ -9734,19 +9734,19 @@
         <v>6760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2218</v>
+        <v>2280</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17301</v>
+        <v>17312</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02709629514386386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008891101861815911</v>
+        <v>0.009139300647070719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06935406685827623</v>
+        <v>0.06939731121154284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -9768,19 +9768,19 @@
         <v>6760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1681</v>
+        <v>2315</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16716</v>
+        <v>16235</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01685789722097415</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004191438721385496</v>
+        <v>0.005773768118411162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04168993708924868</v>
+        <v>0.04048835091982911</v>
       </c>
     </row>
     <row r="12">
@@ -9797,19 +9797,19 @@
         <v>241468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>230877</v>
+        <v>231406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>246609</v>
+        <v>246711</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9679486692163253</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9254937698462664</v>
+        <v>0.9276116602891333</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.988556042146772</v>
+        <v>0.9889630648519566</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -9818,16 +9818,16 @@
         <v>150647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>146313</v>
+        <v>146667</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>151508</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.994317497160078</v>
+        <v>0.9943174971600782</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9657136474625536</v>
+        <v>0.9680494483020622</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -9839,19 +9839,19 @@
         <v>392115</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>381098</v>
+        <v>381500</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>397552</v>
+        <v>397402</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9779121919715567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.950434243853866</v>
+        <v>0.9514378915134515</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9914716583360677</v>
+        <v>0.9910965545898005</v>
       </c>
     </row>
     <row r="13">
@@ -9946,16 +9946,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6531</v>
+        <v>6012</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.003779378670931828</v>
+        <v>0.003779378670931829</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02095819757390263</v>
+        <v>0.01929264975753258</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -9967,16 +9967,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4384</v>
+        <v>4540</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.007585329468981567</v>
+        <v>0.007585329468981565</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02591904816960195</v>
+        <v>0.02684245985492059</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -9985,19 +9985,19 @@
         <v>2461</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7857</v>
+        <v>8428</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005118361813921878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009788112994151877</v>
+        <v>0.0009853061174240137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01634170234920771</v>
+        <v>0.01752952393366561</v>
       </c>
     </row>
     <row r="15">
@@ -10014,19 +10014,19 @@
         <v>3420</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10300</v>
+        <v>11130</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01097394035783426</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003596940865605704</v>
+        <v>0.003620117143742523</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03305059061187307</v>
+        <v>0.03571490342656364</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -10038,16 +10038,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4359</v>
+        <v>4111</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.004755677374345702</v>
+        <v>0.0047556773743457</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02577045696217817</v>
+        <v>0.02430614666130427</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -10056,19 +10056,19 @@
         <v>4224</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9997</v>
+        <v>10848</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.008786274317107533</v>
+        <v>0.008786274317107535</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002355641845007701</v>
+        <v>0.002367770312846377</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0207934166569122</v>
+        <v>0.02256195085319492</v>
       </c>
     </row>
     <row r="16">
@@ -10088,16 +10088,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5646</v>
+        <v>6150</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003624695712515229</v>
+        <v>0.00362469571251523</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01811733428978159</v>
+        <v>0.01973435679378033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6867</v>
+        <v>5419</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002349480473260637</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01428323096424535</v>
+        <v>0.01127059312896281</v>
       </c>
     </row>
     <row r="17">
@@ -10148,19 +10148,19 @@
         <v>305916</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>299150</v>
+        <v>298380</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>309398</v>
+        <v>309377</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9816219852587185</v>
+        <v>0.9816219852587187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.959913023394171</v>
+        <v>0.9574418704905957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9927951914236974</v>
+        <v>0.9927278219361751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>225</v>
@@ -10169,7 +10169,7 @@
         <v>167062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>162568</v>
+        <v>163400</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>168679</v>
@@ -10178,10 +10178,10 @@
         <v>0.9876589931566727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9610938391509424</v>
+        <v>0.9660119796173812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9972241625306054</v>
+        <v>0.9972225439671988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>489</v>
@@ -10190,19 +10190,19 @@
         <v>472976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>466554</v>
+        <v>465426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>477563</v>
+        <v>477237</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.98374588339571</v>
+        <v>0.9837458833957099</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9703889843908805</v>
+        <v>0.9680414142783114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9932866866042789</v>
+        <v>0.9926078781619032</v>
       </c>
     </row>
     <row r="18">
@@ -10294,19 +10294,19 @@
         <v>2878</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8123</v>
+        <v>8290</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.008229157643408317</v>
+        <v>0.008229157643408319</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002302435067326371</v>
+        <v>0.002304542455481829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02322364350220387</v>
+        <v>0.0237015073428242</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -10328,19 +10328,19 @@
         <v>2878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9104</v>
+        <v>7649</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005163130430324476</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001457224991920669</v>
+        <v>0.001446708784209357</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01633107559135752</v>
+        <v>0.0137214288568038</v>
       </c>
     </row>
     <row r="20">
@@ -10360,16 +10360,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7485</v>
+        <v>6584</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005869747803754729</v>
+        <v>0.00586974780375473</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02139961255623792</v>
+        <v>0.01882358410806039</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5524</v>
+        <v>4314</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006832766304727125</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02659732713801477</v>
+        <v>0.02077216166324581</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -10399,19 +10399,19 @@
         <v>3472</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>912</v>
+        <v>720</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8300</v>
+        <v>9111</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.006228550133061143</v>
+        <v>0.006228550133061144</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001635684201677888</v>
+        <v>0.001291720110270681</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01488958346080943</v>
+        <v>0.01634374827830992</v>
       </c>
     </row>
     <row r="21">
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6344</v>
+        <v>7396</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.005658048006724152</v>
+        <v>0.005658048006724153</v>
       </c>
       <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01813892852029343</v>
+        <v>0.02114472384802306</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4916</v>
+        <v>4763</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.006739636603112129</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02366822667036794</v>
+        <v>0.0229312389634266</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -10470,19 +10470,19 @@
         <v>3379</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1155</v>
+        <v>815</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8983</v>
+        <v>8737</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006061027292525418</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002072594969326566</v>
+        <v>0.0014615518942083</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01611361197552108</v>
+        <v>0.01567207011295915</v>
       </c>
     </row>
     <row r="22">
@@ -10499,19 +10499,19 @@
         <v>342849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>336096</v>
+        <v>334264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>347046</v>
+        <v>346895</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9802430465461125</v>
+        <v>0.9802430465461128</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9609360584686176</v>
+        <v>0.9556986946365764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9922440009285263</v>
+        <v>0.9918123592240352</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>313</v>
@@ -10520,19 +10520,19 @@
         <v>204879</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199895</v>
+        <v>201118</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>206985</v>
+        <v>206983</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9864275970921607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9624315631562935</v>
+        <v>0.9683188672231227</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9965668412520938</v>
+        <v>0.9965577366666526</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>637</v>
@@ -10541,19 +10541,19 @@
         <v>547728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>539980</v>
+        <v>541266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>552401</v>
+        <v>552376</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.982547292144089</v>
+        <v>0.9825472921440892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9686486108087079</v>
+        <v>0.9709562226975174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9909294486697382</v>
+        <v>0.9908861080490659</v>
       </c>
     </row>
     <row r="23">
@@ -10645,19 +10645,19 @@
         <v>4868</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1713</v>
+        <v>2289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10035</v>
+        <v>10377</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01742632804402745</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006132104437022824</v>
+        <v>0.008193826337369028</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03592104360684838</v>
+        <v>0.03714442446498796</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -10666,19 +10666,19 @@
         <v>2408</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>685</v>
+        <v>614</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6053</v>
+        <v>5525</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0162740985251949</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004629960229519782</v>
+        <v>0.004149033813571815</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04090711681616739</v>
+        <v>0.03734048313329288</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -10687,19 +10687,19 @@
         <v>7276</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3965</v>
+        <v>3769</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13335</v>
+        <v>14019</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01702737208777367</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009277729652922498</v>
+        <v>0.008820427939562491</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03120738174829227</v>
+        <v>0.03280630347753805</v>
       </c>
     </row>
     <row r="25">
@@ -10716,19 +10716,19 @@
         <v>3250</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>864</v>
+        <v>935</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7752</v>
+        <v>7937</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01163251527970436</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003093631584489177</v>
+        <v>0.003346636351164649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02774860694830268</v>
+        <v>0.02841165319006463</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -10740,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3606</v>
+        <v>4065</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004841790407912159</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02437073869925022</v>
+        <v>0.02747213662948767</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -10758,19 +10758,19 @@
         <v>3966</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1394</v>
+        <v>1522</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8146</v>
+        <v>9059</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009281247506572545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003262630934071507</v>
+        <v>0.003561863095028685</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01906354331288748</v>
+        <v>0.02120046368708644</v>
       </c>
     </row>
     <row r="26">
@@ -10787,19 +10787,19 @@
         <v>3483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9254</v>
+        <v>8075</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0124668154710322</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003165985120337705</v>
+        <v>0.003132896615756224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03312489233514954</v>
+        <v>0.02890649563115162</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3740</v>
+        <v>3452</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004657468780766969</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02527661735072086</v>
+        <v>0.0233298471880298</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -10829,19 +10829,19 @@
         <v>4172</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1574</v>
+        <v>1560</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9904</v>
+        <v>10281</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009762853000352954</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003683410921139513</v>
+        <v>0.003650662122381606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02317770377726461</v>
+        <v>0.02406031230624261</v>
       </c>
     </row>
     <row r="27">
@@ -10858,19 +10858,19 @@
         <v>267760</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>260565</v>
+        <v>260788</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>273226</v>
+        <v>272680</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.958474341205236</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9327167932566316</v>
+        <v>0.9335154721609621</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9780404791545604</v>
+        <v>0.9760829785794974</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>234</v>
@@ -10879,19 +10879,19 @@
         <v>144145</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>139865</v>
+        <v>140088</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>146250</v>
+        <v>146216</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.9742266422861261</v>
+        <v>0.9742266422861259</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9453016657181099</v>
+        <v>0.9468113978059982</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9884573016844028</v>
+        <v>0.9882264359014509</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>524</v>
@@ -10900,19 +10900,19 @@
         <v>411904</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>403863</v>
+        <v>403296</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>417675</v>
+        <v>417640</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9639285274053008</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9451121638376445</v>
+        <v>0.9437848093140383</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9774347238575752</v>
+        <v>0.9773519951751449</v>
       </c>
     </row>
     <row r="28">
@@ -11004,19 +11004,19 @@
         <v>2412</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>727</v>
+        <v>613</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6339</v>
+        <v>6154</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01164647953201609</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003509295896668642</v>
+        <v>0.002959914205849534</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03061118902467472</v>
+        <v>0.02971828897572129</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -11028,16 +11028,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2745</v>
+        <v>3044</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.005789705916873379</v>
+        <v>0.005789705916873378</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03479662500032792</v>
+        <v>0.03858248075020036</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -11046,19 +11046,19 @@
         <v>2869</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>977</v>
+        <v>1029</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6470</v>
+        <v>6339</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01003073905768715</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003417409614856992</v>
+        <v>0.003596521092583696</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0226221776184525</v>
+        <v>0.02216343861279802</v>
       </c>
     </row>
     <row r="30">
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4370</v>
+        <v>4365</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004221292193683789</v>
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02110179275305372</v>
+        <v>0.02107747470794256</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -11112,16 +11112,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4385</v>
+        <v>4398</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.003056741009108508</v>
+        <v>0.003056741009108507</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0153332213912918</v>
+        <v>0.01537666973175304</v>
       </c>
     </row>
     <row r="31">
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5953</v>
+        <v>5766</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.007679164932980493</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02874749599601994</v>
+        <v>0.02784109710297068</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5645</v>
+        <v>5307</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.005560671303794566</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01973745339922006</v>
+        <v>0.01855522885594674</v>
       </c>
     </row>
     <row r="32">
@@ -11201,19 +11201,19 @@
         <v>202216</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>196939</v>
+        <v>197779</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>204896</v>
+        <v>205018</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9764530633413196</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9509751176756113</v>
+        <v>0.9550290135041686</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9893939343554599</v>
+        <v>0.9899865009813856</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>148</v>
@@ -11222,16 +11222,16 @@
         <v>78441</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>76153</v>
+        <v>75854</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>78898</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9942102940831267</v>
+        <v>0.9942102940831264</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9652033749996728</v>
+        <v>0.9614175192497989</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -11243,19 +11243,19 @@
         <v>280657</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>276077</v>
+        <v>276098</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>283466</v>
+        <v>283549</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9813518486294099</v>
+        <v>0.9813518486294097</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9653394038367487</v>
+        <v>0.9654100825096142</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9911740421394692</v>
+        <v>0.9914653193013673</v>
       </c>
     </row>
     <row r="33">
@@ -11350,16 +11350,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5444</v>
+        <v>4350</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01233467254317186</v>
+        <v>0.01233467254317187</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04961167776944239</v>
+        <v>0.0396347849560575</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2625</v>
+        <v>2245</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01431503182357895</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08716029031912108</v>
+        <v>0.07454761491199323</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -11389,19 +11389,19 @@
         <v>1785</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4864</v>
+        <v>5452</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.01276115904200211</v>
+        <v>0.01276115904200212</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003096790195288457</v>
+        <v>0.003064029099557899</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03477450363520251</v>
+        <v>0.03898236370233347</v>
       </c>
     </row>
     <row r="35">
@@ -11421,16 +11421,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2625</v>
+        <v>2809</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.005113911110541055</v>
+        <v>0.005113911110541056</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02391627120612978</v>
+        <v>0.02559427827081806</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -11455,16 +11455,16 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>3038</v>
+        <v>2358</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.004012588705843136</v>
+        <v>0.004012588705843137</v>
       </c>
       <c r="V35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02172483058335487</v>
+        <v>0.01686075296780535</v>
       </c>
     </row>
     <row r="36">
@@ -11484,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3000</v>
+        <v>2686</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.004858359848390596</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02733818603867468</v>
+        <v>0.0244765179271747</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2702</v>
+        <v>3033</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003812072489173817</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0193189932947968</v>
+        <v>0.02168555571650762</v>
       </c>
     </row>
     <row r="37">
@@ -11544,19 +11544,19 @@
         <v>107293</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>103845</v>
+        <v>103875</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>109176</v>
+        <v>109184</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9776930564978964</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.946276873278725</v>
+        <v>0.9465475029991168</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.994854133904324</v>
+        <v>0.9949206630145971</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>52</v>
@@ -11565,7 +11565,7 @@
         <v>29689</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>27495</v>
+        <v>27875</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>30120</v>
@@ -11574,7 +11574,7 @@
         <v>0.985684968176421</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9128397096808792</v>
+        <v>0.9254523850880068</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -11586,19 +11586,19 @@
         <v>136982</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>133367</v>
+        <v>132659</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>138770</v>
+        <v>138803</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9794141797629808</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9535695176011718</v>
+        <v>0.9485056763129674</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9921980904113705</v>
+        <v>0.992434319982646</v>
       </c>
     </row>
     <row r="38">
@@ -11690,19 +11690,19 @@
         <v>12690</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>7274</v>
+        <v>7252</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>20718</v>
+        <v>20499</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.007583675239003757</v>
+        <v>0.007583675239003758</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.004347051548174151</v>
+        <v>0.004333775326888692</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0123813388976235</v>
+        <v>0.01225075579074181</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>12</v>
@@ -11711,19 +11711,19 @@
         <v>11618</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>5606</v>
+        <v>6112</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>22222</v>
+        <v>22998</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01296164085076162</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.006254257330474315</v>
+        <v>0.006819149165463719</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02479231465962118</v>
+        <v>0.02565818854489864</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>28</v>
@@ -11732,19 +11732,19 @@
         <v>24308</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>16501</v>
+        <v>15613</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>36557</v>
+        <v>35794</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.00945959198876954</v>
+        <v>0.009459591988769542</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.006421488823637014</v>
+        <v>0.006076113459228827</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01422651616738769</v>
+        <v>0.01392972000380284</v>
       </c>
     </row>
     <row r="40">
@@ -11761,19 +11761,19 @@
         <v>11394</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6357</v>
+        <v>6043</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>19256</v>
+        <v>19655</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.006809359191291251</v>
+        <v>0.006809359191291252</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003798915966969741</v>
+        <v>0.003611610868838536</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01150807181219634</v>
+        <v>0.01174615749680129</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -11782,19 +11782,19 @@
         <v>2940</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7411</v>
+        <v>7252</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.003280000103897582</v>
+        <v>0.003280000103897581</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0007973628380861472</v>
+        <v>0.000804430991265095</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.008267734890592541</v>
+        <v>0.008091084793568576</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>16</v>
@@ -11803,19 +11803,19 @@
         <v>14334</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8524</v>
+        <v>8386</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>23941</v>
+        <v>24066</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.005578264702047061</v>
+        <v>0.005578264702047062</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003317062020272469</v>
+        <v>0.003263322010862855</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.009317021844267737</v>
+        <v>0.009365646187372989</v>
       </c>
     </row>
     <row r="41">
@@ -11832,19 +11832,19 @@
         <v>17127</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10009</v>
+        <v>9336</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30996</v>
+        <v>27965</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01023574298234086</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005981819954717531</v>
+        <v>0.005579110122777054</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01852412357664669</v>
+        <v>0.01671272722767638</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -11853,19 +11853,19 @@
         <v>2089</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5499</v>
+        <v>5693</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.002330534012467659</v>
+        <v>0.002330534012467658</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0007234267261411294</v>
+        <v>0.000718526151848021</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.006135570287556634</v>
+        <v>0.006351891629259043</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -11874,19 +11874,19 @@
         <v>19216</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11912</v>
+        <v>11164</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>32883</v>
+        <v>31358</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007478285053535583</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004635571463510941</v>
+        <v>0.004344626986571046</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01279678314620767</v>
+        <v>0.01220325970742568</v>
       </c>
     </row>
     <row r="42">
@@ -11903,19 +11903,19 @@
         <v>1632092</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1617434</v>
+        <v>1617282</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1644176</v>
+        <v>1643754</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.975371222587364</v>
+        <v>0.9753712225873641</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9666116923703619</v>
+        <v>0.966520892527919</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9825931246098332</v>
+        <v>0.9823409114690701</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1174</v>
@@ -11924,19 +11924,19 @@
         <v>879679</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>868260</v>
+        <v>869651</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>886749</v>
+        <v>886764</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.981427825032873</v>
+        <v>0.9814278250328731</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9686876675327992</v>
+        <v>0.9702393564861163</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9893149816012032</v>
+        <v>0.9893323527754954</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2712</v>
@@ -11945,19 +11945,19 @@
         <v>2511770</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2494053</v>
+        <v>2494224</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2525098</v>
+        <v>2526113</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.9774838582556477</v>
+        <v>0.9774838582556478</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9705892443811093</v>
+        <v>0.9706556038814702</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9826706618018271</v>
+        <v>0.9830657682657574</v>
       </c>
     </row>
     <row r="43">
